--- a/xlsx/通用汽车_intext.xlsx
+++ b/xlsx/通用汽车_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>通用汽车</t>
   </si>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%99%AE%E7%88%BE500%E6%8C%87%E6%95%B8%E6%88%90%E5%88%86%E8%82%A1</t>
   </si>
   <si>
-    <t>標準普爾500指數成分股</t>
+    <t>标准普尔500指数成分股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E6%A5%AD</t>
   </si>
   <si>
-    <t>製造業</t>
+    <t>制造业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E5%82%99</t>
   </si>
   <si>
-    <t>設備</t>
+    <t>设备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renaissance_Center</t>
@@ -137,19 +137,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD%E4%BC%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>雪佛蘭伏特</t>
+    <t>雪佛兰伏特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD</t>
   </si>
   <si>
-    <t>雪佛蘭</t>
+    <t>雪佛兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E5%85%8B</t>
@@ -191,13 +188,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%84%AA%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>吉優汽車</t>
+    <t>吉优汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%88%BE%E7%A6%8F%E6%B1%BD%E8%BB%8A%E9%9B%B6%E4%BB%B6</t>
   </si>
   <si>
-    <t>德爾福汽車零件</t>
+    <t>德尔福汽车零件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E9%A3%9E%E6%9C%BA%E5%85%AC%E5%8F%B8</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E8%92%82%E5%85%8B</t>
   </si>
   <si>
-    <t>龐蒂克</t>
+    <t>庞蒂克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F%E6%B1%BD%E8%BD%A6</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%82%8D%E9%A6%AC_(%E6%B0%91%E7%94%A8%E6%B1%BD%E8%BB%8A)</t>
   </si>
   <si>
-    <t>悍馬 (民用汽車)</t>
+    <t>悍马 (民用汽车)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%8D%9A%E6%B1%BD%E8%BD%A6</t>
@@ -245,13 +242,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>次貸危機</t>
+    <t>次贷危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alfred_P._Sloan</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CEO</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Opel</t>
@@ -311,13 +308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E6%96%AF%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>勞斯萊斯</t>
+    <t>劳斯莱斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%88%A9</t>
   </si>
   <si>
-    <t>賓利</t>
+    <t>宾利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Jaguar</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>賓士</t>
+    <t>宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%87%91</t>
@@ -359,19 +356,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E8%A6%96%E9%8F%A1</t>
   </si>
   <si>
-    <t>夜視鏡</t>
+    <t>夜视镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E5%90%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>懸吊系統</t>
+    <t>悬吊系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E5%88%A9</t>
@@ -383,37 +380,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E5%B0%8E%E8%88%AA</t>
   </si>
   <si>
-    <t>衛星導航</t>
+    <t>卫星导航</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>數位</t>
+    <t>数位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E9%9F%B3%E6%A9%9F</t>
   </si>
   <si>
-    <t>收音機</t>
+    <t>收音机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>國防部</t>
+    <t>国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網路</t>
+    <t>网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Buick</t>
@@ -425,31 +419,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>標緻汽車</t>
+    <t>标致汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%AF%B6</t>
   </si>
   <si>
-    <t>歐寶</t>
+    <t>欧宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%B3%80%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>佛賀汽車</t>
+    <t>佛贺汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E8%BF%AA%E6%8B%89%E5%85%8BV-16</t>
@@ -461,33 +452,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>克萊斯勒</t>
+    <t>克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E5%82%B5%E5%88%B8</t>
   </si>
   <si>
-    <t>垃圾債券</t>
+    <t>垃圾债券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%90%B5</t>
   </si>
   <si>
-    <t>鋼鐵</t>
+    <t>钢铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>福特汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/UBS</t>
   </si>
   <si>
@@ -497,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E9%87%91%E6%B5%81</t>
@@ -509,21 +497,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AE%87%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>大宇汽車</t>
+    <t>大宇汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%BC%E8%B3%BD%E5%85%8B</t>
   </si>
   <si>
-    <t>科尼賽克</t>
+    <t>科尼赛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%9A%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>薩博汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%88%B5%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
@@ -551,9 +536,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
@@ -563,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E6%B2%99%E7%9A%87</t>
   </si>
   <si>
-    <t>汽車沙皇</t>
+    <t>汽车沙皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A%E9%9B%BB%E8%BB%8A%E9%99%B0%E8%AC%80</t>
   </si>
   <si>
-    <t>通用汽車電車陰謀</t>
+    <t>通用汽车电车阴谋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%90%E4%B8%96%E7%89%B9</t>
@@ -581,19 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E5%85%B0</t>
   </si>
   <si>
-    <t>雪佛兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%AE%9D</t>
   </si>
   <si>
-    <t>欧宝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%B3%80</t>
   </si>
   <si>
-    <t>佛賀</t>
+    <t>佛贺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%B1%BD%E9%80%9A%E7%94%A8</t>
@@ -689,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%AF%E5%90%88%E6%B1%BD%E8%BB%8A%E8%A3%BD%E9%80%A0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>新聯合汽車製造公司</t>
+    <t>新联合汽车制造公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%90%E4%B8%96%E7%89%B9%E6%B1%BD%E8%BD%A6</t>
@@ -731,19 +707,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A6%8F%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>百福汽車</t>
+    <t>百福汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%8C%B2%E6%91%A9%E6%AF%94</t>
   </si>
   <si>
-    <t>奧茲摩比</t>
+    <t>奥兹摩比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%9E%E8%92%82%E5%85%8B</t>
-  </si>
-  <si>
-    <t>庞蒂克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B2%E8%8A%B1%E6%B1%BD%E8%BD%A6</t>
@@ -1736,7 +1709,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
         <v>66</v>
@@ -1762,10 +1735,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>7</v>
@@ -1791,10 +1764,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>76</v>
@@ -1820,10 +1793,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1849,10 +1822,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1878,10 +1851,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1907,10 +1880,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -1936,10 +1909,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -1965,10 +1938,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1994,10 +1967,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2023,10 +1996,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2052,10 +2025,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2081,10 +2054,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2110,10 +2083,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2139,10 +2112,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2168,10 +2141,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2197,10 +2170,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2226,10 +2199,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2255,10 +2228,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2284,10 +2257,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2313,10 +2286,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
         <v>53</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2342,10 +2315,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2371,10 +2344,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2400,10 +2373,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2429,10 +2402,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2458,10 +2431,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2487,10 +2460,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2516,10 +2489,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2545,10 +2518,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2574,10 +2547,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2603,10 +2576,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2632,10 +2605,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2661,10 +2634,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2690,10 +2663,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2719,10 +2692,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2748,10 +2721,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2777,10 +2750,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2806,10 +2779,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2835,10 +2808,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2864,10 +2837,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2893,10 +2866,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2922,10 +2895,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2951,10 +2924,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2980,10 +2953,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3009,10 +2982,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G65" t="n">
         <v>29</v>
@@ -3038,10 +3011,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3067,10 +3040,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3096,10 +3069,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3125,10 +3098,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>7</v>
@@ -3154,10 +3127,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3183,10 +3156,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>56</v>
@@ -3212,10 +3185,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3241,10 +3214,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3270,10 +3243,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3299,10 +3272,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3328,10 +3301,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3357,10 +3330,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3386,10 +3359,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3415,10 +3388,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G79" t="n">
         <v>5</v>
@@ -3444,10 +3417,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3473,10 +3446,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3502,10 +3475,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -3531,10 +3504,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3560,10 +3533,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3589,10 +3562,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3618,10 +3591,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3647,10 +3620,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3676,10 +3649,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3705,10 +3678,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -3734,10 +3707,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3763,10 +3736,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3792,10 +3765,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3821,10 +3794,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3850,10 +3823,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3879,10 +3852,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="G95" t="n">
         <v>5</v>
@@ -3908,10 +3881,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -3937,10 +3910,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3966,10 +3939,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -3995,10 +3968,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4024,10 +3997,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4053,10 +4026,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4082,10 +4055,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4111,10 +4084,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4140,10 +4113,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4169,10 +4142,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4198,10 +4171,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4227,10 +4200,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4256,10 +4229,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4285,10 +4258,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4314,10 +4287,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4343,10 +4316,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4372,10 +4345,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>60</v>
+      </c>
+      <c r="F112" t="s">
         <v>61</v>
-      </c>
-      <c r="F112" t="s">
-        <v>62</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4401,10 +4374,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4430,10 +4403,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4459,10 +4432,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4488,10 +4461,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4517,10 +4490,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4546,10 +4519,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4575,10 +4548,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4604,10 +4577,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4633,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4662,10 +4635,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4691,10 +4664,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4720,10 +4693,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4749,10 +4722,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F125" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -4778,10 +4751,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -4807,10 +4780,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4836,10 +4809,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4865,10 +4838,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4894,10 +4867,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4923,10 +4896,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
